--- a/results/T2_bmi_grouping_results.xlsx
+++ b/results/T2_bmi_grouping_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>最佳NIPT时点</t>
+          <t>推荐NIPT时点 (周)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>总风险评分</t>
         </is>
       </c>
     </row>
@@ -475,14 +480,25 @@
       <c r="C2" t="n">
         <v>46.875</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.22077922077922</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.26152829202723</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.67%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.497</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -495,14 +511,25 @@
       <c r="C3" t="n">
         <v>30.99686586</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.9918032786885246</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.36835891381346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>14.58655123140083</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.18%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.144</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -515,14 +542,25 @@
       <c r="C4" t="n">
         <v>37.8328742</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.34353741496598</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16.07666984351419</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.33%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.294</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -535,14 +573,25 @@
       <c r="C5" t="n">
         <v>33.88982508</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.9772727272727273</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.24750830564784</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14.28089017188372</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97.73%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
       </c>
     </row>
   </sheetData>
